--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey-headed Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey-headed Albatross_Prince Edward Islands.xlsx
@@ -3036,13 +3036,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30FEEAD0-B2E3-4019-96FD-6D4C964BC69B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D12B90B-EFA3-4DC7-9672-BCC85EFA4C61}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD2B759D-A1A0-45B2-9681-60785D3B97E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CF71144-D915-4FC5-BD83-B1B3D2AA1FBF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC1F7B9-ECAC-427A-9DCF-54548A6DC177}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26F2466-777B-49FF-B7A6-E33796100D34}"/>
 </file>